--- a/printer/templates/kitchen.xlsx
+++ b/printer/templates/kitchen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\source\- back\template-printing-api\printer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\source\__\template-printing-api\printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>{{InvoiceType}}</t>
+  </si>
+  <si>
+    <t>{{Note}}</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -531,9 +534,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
@@ -543,6 +543,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -610,6 +613,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,7 +994,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,14 +1097,14 @@
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -1110,28 +1116,28 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
@@ -1142,12 +1148,15 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:7" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
@@ -1216,7 +1225,8 @@
     <row r="22" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="B8:G8"/>
